--- a/src/demos/ztest_excel_image_header.w3mi.data.xlsx
+++ b/src/demos/ztest_excel_image_header.w3mi.data.xlsx
@@ -81,7 +81,7 @@
     <xdr:ext cx="1581150" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EEC958615DC8333AFDD"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95A99625A628E065"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -404,10 +404,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5423726851851852</v>
+        <v>0.4749884259259259</v>
       </c>
     </row>
   </sheetData>

--- a/src/demos/ztest_excel_image_header.w3mi.data.xlsx
+++ b/src/demos/ztest_excel_image_header.w3mi.data.xlsx
@@ -81,7 +81,7 @@
     <xdr:ext cx="1581150" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC95A99625A628E065"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BACB3AB52F6497"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/src/demos/ztest_excel_image_header.w3mi.data.xlsx
+++ b/src/demos/ztest_excel_image_header.w3mi.data.xlsx
@@ -81,7 +81,7 @@
     <xdr:ext cx="1581150" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BACB3AB52F6497"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EDC95BF00BB62D7E731"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>

--- a/src/demos/ztest_excel_image_header.w3mi.data.xlsx
+++ b/src/demos/ztest_excel_image_header.w3mi.data.xlsx
@@ -16,7 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hello world</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,11 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,7 +83,7 @@
     <xdr:ext cx="1581150" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC99E75CDD2799EFF0"/>
+        <xdr:cNvPr id="1" name="0800271CCEE91EEC9AC683DB77615147"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -391,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,18 +402,14 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r=""/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2">
-        <v>44557</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.7722453703703703</v>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
